--- a/DOC/要件定義/社内管理システム_DOTNET系.xlsx
+++ b/DOC/要件定義/社内管理システム_DOTNET系.xlsx
@@ -1,32 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pleiades\pleiades\workspace\ems\DOC\要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF29DC5C-98F9-4F89-BC57-223F8FD1FFA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09C26EB4-5654-4345-9E18-560BA2E8BEA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="615" windowWidth="25725" windowHeight="14985" tabRatio="1000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1605" yWindow="705" windowWidth="28740" windowHeight="15000" tabRatio="1000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="修正履歴" sheetId="18" r:id="rId1"/>
     <sheet name="貸借対照表（BS)" sheetId="20" r:id="rId2"/>
+    <sheet name="システム構成" sheetId="21" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -211,7 +202,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -249,6 +240,12 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -509,26 +506,26 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -702,6 +699,1269 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>371476</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00FD9DAA-AFE7-4117-B8E4-94E528CC4843}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="714376" y="238125"/>
+          <a:ext cx="7886700" cy="6200775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>構成図：</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>228599</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9047DA88-44F4-4E60-B113-507346BB8EB4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="914399" y="590549"/>
+          <a:ext cx="5191126" cy="2390776"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>委託サーバー１（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Linux</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>495299</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="正方形/長方形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74BC34C4-3B60-48A2-9F47-3A137F1F2A14}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1181099" y="904875"/>
+          <a:ext cx="4705351" cy="1962150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Tomcat8</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>314324</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>657223</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="正方形/長方形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{208DB604-D49A-4B05-9AF6-5B058ABF207A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3743324" y="1733550"/>
+          <a:ext cx="1714499" cy="923926"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Java8</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>447674</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>419099</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="正方形/長方形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{574AB409-894E-4FAC-A397-73E027468095}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3876674" y="2219326"/>
+          <a:ext cx="1343025" cy="323849"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>⑤勘定科目</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>API</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>57149</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="円柱 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D878B5EE-3ABA-46DF-A984-5BAAFB166854}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1428749" y="1847849"/>
+          <a:ext cx="1428751" cy="809625"/>
+        </a:xfrm>
+        <a:prstGeom prst="can">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　　　　　　　　　　　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>MySQL8.X</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>147066</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>167259</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>318516</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>175641</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="上下矢印 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81F6C4C9-4034-49DE-ACC8-2C616DC780BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="3076575" y="1885950"/>
+          <a:ext cx="484632" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="upDownArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>390524</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>209549</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="正方形/長方形 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{563B1AB5-B3A0-0303-AB2B-C74409A0B9E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1076324" y="3781424"/>
+          <a:ext cx="5191126" cy="2390776"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>端末（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>WindowsPC/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>スマートフォン）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>495299</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>152398</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="正方形/長方形 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DF198E6-CFB7-39C8-6256-7136C23FC4AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3924299" y="4438650"/>
+          <a:ext cx="1714499" cy="923926"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>VB.NET</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>などの画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>27432</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="上下矢印 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{831FF23D-B7DC-E52D-6C67-71164D9C8476}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4343400" y="2705100"/>
+          <a:ext cx="484632" cy="1514475"/>
+        </a:xfrm>
+        <a:prstGeom prst="upDownArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="正方形/長方形 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACFB6440-6058-8ED7-B860-8DFFEA260DF8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4752975" y="3267075"/>
+          <a:ext cx="885825" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>HTTPs</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>552449</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="正方形/長方形 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2F2FC52-D92F-D1C9-48BF-81BB9C9E4CAD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1238249" y="7162799"/>
+          <a:ext cx="5191126" cy="2390776"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Git</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>の利用</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>133348</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>57149</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="正方形/長方形 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBC2C82B-BFDF-3143-F953-526DFC61A7A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1504948" y="7648575"/>
+          <a:ext cx="1981201" cy="647700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>①　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Vs2013</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>以後バージョン</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>（帳票ツール）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="正方形/長方形 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44B0A5F0-2C04-0521-F9F0-E613AB0C531A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4495800" y="7572374"/>
+          <a:ext cx="1704976" cy="1266825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>既存社用</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>GitLab</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>123823</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>238124</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>352424</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="上下矢印 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1B886FD-C272-45C4-934A-D9D9DAF84AE2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="3867148" y="7543799"/>
+          <a:ext cx="285751" cy="914401"/>
+        </a:xfrm>
+        <a:prstGeom prst="upDownArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152398</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="正方形/長方形 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56F2C774-5682-72D1-A823-B03735EC1D94}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1523998" y="8372474"/>
+          <a:ext cx="1981201" cy="962025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>②　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Vs2010</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>以後バージョン</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>（帳票ツール）</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:br>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>TortoiseGit</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>123822</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>342899</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="上下矢印 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADF29E37-6010-2C9D-DBF8-7213646F4994}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="4539545">
+          <a:off x="3862385" y="8291511"/>
+          <a:ext cx="285751" cy="904877"/>
+        </a:xfrm>
+        <a:prstGeom prst="upDownArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1000,7 +2260,7 @@
       <c r="C3" s="16">
         <v>44844</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="23" t="s">
         <v>35</v>
       </c>
       <c r="E3" s="15" t="s">
@@ -1159,7 +2419,7 @@
   </sheetPr>
   <dimension ref="A1:AK31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AU13" sqref="AU13"/>
     </sheetView>
   </sheetViews>
@@ -1176,102 +2436,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="24" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
-      <c r="V1" s="24"/>
-      <c r="W1" s="24"/>
-      <c r="X1" s="24"/>
-      <c r="Y1" s="24"/>
-      <c r="Z1" s="24"/>
-      <c r="AA1" s="24"/>
-      <c r="AB1" s="24"/>
-      <c r="AC1" s="23" t="s">
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="25"/>
+      <c r="X1" s="25"/>
+      <c r="Y1" s="25"/>
+      <c r="Z1" s="25"/>
+      <c r="AA1" s="25"/>
+      <c r="AB1" s="25"/>
+      <c r="AC1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="AD1" s="23"/>
-      <c r="AE1" s="23"/>
-      <c r="AF1" s="27" t="s">
+      <c r="AD1" s="24"/>
+      <c r="AE1" s="24"/>
+      <c r="AF1" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="AG1" s="25"/>
-      <c r="AH1" s="25"/>
-      <c r="AI1" s="25"/>
-      <c r="AJ1" s="25"/>
-      <c r="AK1" s="25"/>
+      <c r="AG1" s="27"/>
+      <c r="AH1" s="27"/>
+      <c r="AI1" s="27"/>
+      <c r="AJ1" s="27"/>
+      <c r="AK1" s="27"/>
     </row>
     <row r="2" spans="1:37" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26" t="s">
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26" t="s">
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="28" t="s">
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="28"/>
-      <c r="S2" s="28"/>
-      <c r="T2" s="28"/>
-      <c r="U2" s="28"/>
-      <c r="V2" s="28"/>
-      <c r="W2" s="28"/>
-      <c r="X2" s="28"/>
-      <c r="Y2" s="28"/>
-      <c r="Z2" s="28"/>
-      <c r="AA2" s="28"/>
-      <c r="AB2" s="28"/>
-      <c r="AC2" s="26" t="s">
+      <c r="R2" s="29"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="29"/>
+      <c r="U2" s="29"/>
+      <c r="V2" s="29"/>
+      <c r="W2" s="29"/>
+      <c r="X2" s="29"/>
+      <c r="Y2" s="29"/>
+      <c r="Z2" s="29"/>
+      <c r="AA2" s="29"/>
+      <c r="AB2" s="29"/>
+      <c r="AC2" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="AD2" s="26"/>
-      <c r="AE2" s="26"/>
-      <c r="AF2" s="26" t="s">
+      <c r="AD2" s="28"/>
+      <c r="AE2" s="28"/>
+      <c r="AF2" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="26"/>
-      <c r="AH2" s="26"/>
-      <c r="AI2" s="26"/>
-      <c r="AJ2" s="26"/>
-      <c r="AK2" s="26"/>
+      <c r="AG2" s="28"/>
+      <c r="AH2" s="28"/>
+      <c r="AI2" s="28"/>
+      <c r="AJ2" s="28"/>
+      <c r="AK2" s="28"/>
     </row>
     <row r="3" spans="1:37" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A3" s="22" t="s">
@@ -1615,4 +2875,21 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96717ADC-4734-4FEC-9BFF-53EAFF57BC51}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>